--- a/struttura-completa-link.xlsx
+++ b/struttura-completa-link.xlsx
@@ -7110,7 +7110,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7159,7 +7159,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7208,7 +7208,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7257,7 +7257,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7306,7 +7306,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7355,7 +7355,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>179</xdr:row>
+      <xdr:row>178</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7404,7 +7404,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>192</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7453,7 +7453,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>196</xdr:row>
+      <xdr:row>195</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7502,7 +7502,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>216</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7551,7 +7551,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>221</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7600,7 +7600,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>224</xdr:row>
+      <xdr:row>223</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7649,7 +7649,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>291</xdr:row>
+      <xdr:row>290</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7698,7 +7698,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>316</xdr:row>
+      <xdr:row>315</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7747,7 +7747,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>344</xdr:row>
+      <xdr:row>321</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7796,7 +7796,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>344</xdr:row>
+      <xdr:row>324</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7845,7 +7845,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>344</xdr:row>
+      <xdr:row>342</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7894,7 +7894,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>378</xdr:row>
+      <xdr:row>355</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7943,7 +7943,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>378</xdr:row>
+      <xdr:row>368</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -7992,7 +7992,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>415</xdr:row>
+      <xdr:row>385</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8041,7 +8041,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>433</xdr:row>
+      <xdr:row>427</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8090,7 +8090,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>474</xdr:row>
+      <xdr:row>466</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8188,7 +8188,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>570</xdr:row>
+      <xdr:row>569</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8237,7 +8237,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>545</xdr:row>
+      <xdr:row>521</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8286,7 +8286,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>570</xdr:row>
+      <xdr:row>551</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8384,7 +8384,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>619</xdr:row>
+      <xdr:row>618</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8482,7 +8482,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>658</xdr:row>
+      <xdr:row>654</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8531,7 +8531,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>696</xdr:row>
+      <xdr:row>695</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8580,7 +8580,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>836</xdr:row>
+      <xdr:row>832</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8629,7 +8629,7 @@
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>612</xdr:row>
+      <xdr:row>608</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -8968,13 +8968,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Foglio1" filterMode="1">
+  <sheetPr codeName="Foglio1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:F862"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E842"/>
+    <sheetView tabSelected="1" topLeftCell="A770" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C783" sqref="C783"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9056,7 +9056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>75</v>
       </c>
@@ -9072,7 +9072,7 @@
         <v>1632</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>75</v>
       </c>
@@ -9088,7 +9088,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>75</v>
       </c>
@@ -9104,7 +9104,7 @@
         <v>1634</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>75</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>75</v>
       </c>
@@ -9136,7 +9136,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>75</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>1637</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>75</v>
       </c>
@@ -9168,7 +9168,7 @@
         <v>1638</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>75</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>75</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>75</v>
       </c>
@@ -9216,7 +9216,7 @@
         <v>1641</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>75</v>
       </c>
@@ -9232,7 +9232,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>75</v>
       </c>
@@ -9248,7 +9248,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>87</v>
       </c>
@@ -9266,7 +9266,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="18" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>87</v>
       </c>
@@ -9284,7 +9284,7 @@
         <v>1645</v>
       </c>
     </row>
-    <row r="19" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>87</v>
       </c>
@@ -9302,7 +9302,7 @@
         <v>1646</v>
       </c>
     </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>87</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="21" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>87</v>
       </c>
@@ -9338,7 +9338,7 @@
         <v>1648</v>
       </c>
     </row>
-    <row r="22" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>87</v>
       </c>
@@ -9356,7 +9356,7 @@
         <v>1649</v>
       </c>
     </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>87</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>75</v>
       </c>
@@ -9406,7 +9406,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>75</v>
       </c>
@@ -9422,7 +9422,7 @@
         <v>1652</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>75</v>
       </c>
@@ -9502,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>75</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>75</v>
       </c>
@@ -9534,7 +9534,7 @@
         <v>1655</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>75</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>1656</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>87</v>
       </c>
@@ -9568,7 +9568,7 @@
         <v>1657</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>87</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>87</v>
       </c>
@@ -9652,7 +9652,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>87</v>
       </c>
@@ -9670,7 +9670,7 @@
         <v>1660</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>87</v>
       </c>
@@ -9688,7 +9688,7 @@
         <v>1661</v>
       </c>
     </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>87</v>
       </c>
@@ -9706,7 +9706,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>87</v>
       </c>
@@ -9724,7 +9724,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>87</v>
       </c>
@@ -9742,7 +9742,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>87</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>1665</v>
       </c>
     </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>87</v>
       </c>
@@ -9794,7 +9794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>87</v>
       </c>
@@ -9812,7 +9812,7 @@
         <v>1667</v>
       </c>
     </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>87</v>
       </c>
@@ -9830,7 +9830,7 @@
         <v>1668</v>
       </c>
     </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>87</v>
       </c>
@@ -9848,7 +9848,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>87</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>87</v>
       </c>
@@ -9884,7 +9884,7 @@
         <v>1671</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>87</v>
       </c>
@@ -9902,7 +9902,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>87</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>1673</v>
       </c>
     </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>87</v>
       </c>
@@ -9938,7 +9938,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>87</v>
       </c>
@@ -9956,7 +9956,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>87</v>
       </c>
@@ -9974,7 +9974,7 @@
         <v>1676</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>87</v>
       </c>
@@ -9992,7 +9992,7 @@
         <v>1677</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>87</v>
       </c>
@@ -10010,7 +10010,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>87</v>
       </c>
@@ -10028,7 +10028,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>87</v>
       </c>
@@ -10046,7 +10046,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>87</v>
       </c>
@@ -10064,7 +10064,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>87</v>
       </c>
@@ -10082,7 +10082,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>87</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>87</v>
       </c>
@@ -10118,7 +10118,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>87</v>
       </c>
@@ -10136,7 +10136,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>87</v>
       </c>
@@ -10154,7 +10154,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>87</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>87</v>
       </c>
@@ -10190,7 +10190,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="71" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>87</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="72" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>87</v>
       </c>
@@ -10226,7 +10226,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="73" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>87</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="74" spans="1:6" s="5" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>87</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>75</v>
       </c>
@@ -10376,7 +10376,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>75</v>
       </c>
@@ -10392,7 +10392,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>75</v>
       </c>
@@ -10424,7 +10424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>87</v>
       </c>
@@ -10442,7 +10442,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>87</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>87</v>
       </c>
@@ -10478,7 +10478,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
@@ -10496,7 +10496,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>87</v>
       </c>
@@ -10514,7 +10514,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>87</v>
       </c>
@@ -10532,7 +10532,7 @@
         <v>1701</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>87</v>
       </c>
@@ -10550,7 +10550,7 @@
         <v>1702</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>87</v>
       </c>
@@ -10568,7 +10568,7 @@
         <v>1703</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>87</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>1704</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>87</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>87</v>
       </c>
@@ -10622,7 +10622,7 @@
         <v>1706</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>87</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>1707</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>87</v>
       </c>
@@ -10658,7 +10658,7 @@
         <v>1708</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>87</v>
       </c>
@@ -10676,7 +10676,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>87</v>
       </c>
@@ -10694,7 +10694,7 @@
         <v>1710</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>87</v>
       </c>
@@ -10712,7 +10712,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>87</v>
       </c>
@@ -10730,7 +10730,7 @@
         <v>1712</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>87</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>1713</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>87</v>
       </c>
@@ -10766,7 +10766,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>87</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>1715</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>87</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>87</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>87</v>
       </c>
@@ -10838,7 +10838,7 @@
         <v>1718</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>87</v>
       </c>
@@ -10856,7 +10856,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>87</v>
       </c>
@@ -10874,7 +10874,7 @@
         <v>1720</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>87</v>
       </c>
@@ -10892,7 +10892,7 @@
         <v>1721</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>87</v>
       </c>
@@ -10910,7 +10910,7 @@
         <v>1722</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>87</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>87</v>
       </c>
@@ -10978,7 +10978,7 @@
         <v>1724</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>87</v>
       </c>
@@ -10996,7 +10996,7 @@
         <v>1725</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>87</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>87</v>
       </c>
@@ -11032,7 +11032,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>87</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>1728</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>87</v>
       </c>
@@ -11068,7 +11068,7 @@
         <v>1729</v>
       </c>
     </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>87</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>87</v>
       </c>
@@ -11104,7 +11104,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>87</v>
       </c>
@@ -11122,7 +11122,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>87</v>
       </c>
@@ -11156,7 +11156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>87</v>
       </c>
@@ -11174,7 +11174,7 @@
         <v>1734</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>87</v>
       </c>
@@ -11192,7 +11192,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>87</v>
       </c>
@@ -11210,7 +11210,7 @@
         <v>1736</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>87</v>
       </c>
@@ -11228,7 +11228,7 @@
         <v>1737</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>87</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>1738</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>87</v>
       </c>
@@ -11264,7 +11264,7 @@
         <v>1739</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>87</v>
       </c>
@@ -11282,7 +11282,7 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>87</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>87</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>1742</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>87</v>
       </c>
@@ -11336,7 +11336,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>87</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>87</v>
       </c>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>87</v>
       </c>
@@ -11454,7 +11454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>87</v>
       </c>
@@ -11472,7 +11472,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>87</v>
       </c>
@@ -11490,7 +11490,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>87</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>1749</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>87</v>
       </c>
@@ -11526,7 +11526,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>87</v>
       </c>
@@ -11544,7 +11544,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>87</v>
       </c>
@@ -11562,7 +11562,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>87</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>1753</v>
       </c>
     </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>75</v>
       </c>
@@ -11596,7 +11596,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>75</v>
       </c>
@@ -11612,7 +11612,7 @@
         <v>1755</v>
       </c>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>75</v>
       </c>
@@ -11628,7 +11628,7 @@
         <v>1756</v>
       </c>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>75</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>1757</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>75</v>
       </c>
@@ -11692,7 +11692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>87</v>
       </c>
@@ -11710,7 +11710,7 @@
         <v>1759</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>87</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>1760</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>87</v>
       </c>
@@ -11746,7 +11746,7 @@
         <v>1761</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>87</v>
       </c>
@@ -11764,7 +11764,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>87</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>87</v>
       </c>
@@ -11816,7 +11816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>87</v>
       </c>
@@ -11834,7 +11834,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>87</v>
       </c>
@@ -11868,7 +11868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>87</v>
       </c>
@@ -11918,7 +11918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>87</v>
       </c>
@@ -11936,7 +11936,7 @@
         <v>1768</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>87</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>1769</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>87</v>
       </c>
@@ -11972,7 +11972,7 @@
         <v>1770</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>87</v>
       </c>
@@ -11990,7 +11990,7 @@
         <v>1771</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>87</v>
       </c>
@@ -12008,7 +12008,7 @@
         <v>1772</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>87</v>
       </c>
@@ -12026,7 +12026,7 @@
         <v>1773</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>87</v>
       </c>
@@ -12044,7 +12044,7 @@
         <v>1774</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>87</v>
       </c>
@@ -12062,7 +12062,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>87</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>1776</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>87</v>
       </c>
@@ -12114,7 +12114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>87</v>
       </c>
@@ -12132,7 +12132,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>87</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>1779</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>87</v>
       </c>
@@ -12168,7 +12168,7 @@
         <v>1780</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>87</v>
       </c>
@@ -12186,7 +12186,7 @@
         <v>1781</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>87</v>
       </c>
@@ -12204,7 +12204,7 @@
         <v>1782</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>87</v>
       </c>
@@ -12222,7 +12222,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>87</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>87</v>
       </c>
@@ -12258,7 +12258,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>87</v>
       </c>
@@ -12308,7 +12308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>87</v>
       </c>
@@ -12326,7 +12326,7 @@
         <v>1787</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>87</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>1788</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>87</v>
       </c>
@@ -12362,7 +12362,7 @@
         <v>1789</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>87</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>1790</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>87</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>87</v>
       </c>
@@ -12432,7 +12432,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>87</v>
       </c>
@@ -12450,7 +12450,7 @@
         <v>1793</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>87</v>
       </c>
@@ -12532,7 +12532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>87</v>
       </c>
@@ -12550,7 +12550,7 @@
         <v>1795</v>
       </c>
     </row>
-    <row r="206" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>87</v>
       </c>
@@ -12568,7 +12568,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="207" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>87</v>
       </c>
@@ -12586,7 +12586,7 @@
         <v>1797</v>
       </c>
     </row>
-    <row r="208" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>87</v>
       </c>
@@ -12604,7 +12604,7 @@
         <v>1798</v>
       </c>
     </row>
-    <row r="209" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>87</v>
       </c>
@@ -12622,7 +12622,7 @@
         <v>1799</v>
       </c>
     </row>
-    <row r="210" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>87</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>87</v>
       </c>
@@ -12674,7 +12674,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="213" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>87</v>
       </c>
@@ -12692,7 +12692,7 @@
         <v>1802</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>87</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>1803</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>87</v>
       </c>
@@ -12728,7 +12728,7 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>87</v>
       </c>
@@ -12746,7 +12746,7 @@
         <v>1805</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>87</v>
       </c>
@@ -12764,7 +12764,7 @@
         <v>1806</v>
       </c>
     </row>
-    <row r="218" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>87</v>
       </c>
@@ -12782,7 +12782,7 @@
         <v>1807</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>87</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>1808</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>87</v>
       </c>
@@ -12818,7 +12818,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>87</v>
       </c>
@@ -12836,7 +12836,7 @@
         <v>1810</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>87</v>
       </c>
@@ -12854,7 +12854,7 @@
         <v>1811</v>
       </c>
     </row>
-    <row r="223" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>87</v>
       </c>
@@ -12872,7 +12872,7 @@
         <v>1812</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>87</v>
       </c>
@@ -12906,7 +12906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>87</v>
       </c>
@@ -12924,7 +12924,7 @@
         <v>1814</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>87</v>
       </c>
@@ -12958,7 +12958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>87</v>
       </c>
@@ -12976,7 +12976,7 @@
         <v>1816</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>934</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>87</v>
       </c>
@@ -13010,7 +13010,7 @@
         <v>1817</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>87</v>
       </c>
@@ -13028,7 +13028,7 @@
         <v>1818</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>87</v>
       </c>
@@ -13046,7 +13046,7 @@
         <v>1819</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>87</v>
       </c>
@@ -13064,7 +13064,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>87</v>
       </c>
@@ -13082,7 +13082,7 @@
         <v>1821</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>87</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>1822</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>87</v>
       </c>
@@ -13182,7 +13182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>87</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>1824</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>87</v>
       </c>
@@ -13218,7 +13218,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>87</v>
       </c>
@@ -13236,7 +13236,7 @@
         <v>1826</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>87</v>
       </c>
@@ -13286,7 +13286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>87</v>
       </c>
@@ -13304,7 +13304,7 @@
         <v>1828</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>87</v>
       </c>
@@ -13322,7 +13322,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>87</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>1830</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>87</v>
       </c>
@@ -13358,7 +13358,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>87</v>
       </c>
@@ -13376,7 +13376,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>87</v>
       </c>
@@ -13410,7 +13410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>87</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>87</v>
       </c>
@@ -13478,7 +13478,7 @@
         <v>1835</v>
       </c>
     </row>
-    <row r="259" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>87</v>
       </c>
@@ -13528,7 +13528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>87</v>
       </c>
@@ -13546,7 +13546,7 @@
         <v>1837</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>87</v>
       </c>
@@ -13564,7 +13564,7 @@
         <v>1838</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>87</v>
       </c>
@@ -13582,7 +13582,7 @@
         <v>1839</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>87</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>87</v>
       </c>
@@ -13618,7 +13618,7 @@
         <v>1841</v>
       </c>
     </row>
-    <row r="267" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>87</v>
       </c>
@@ -13636,7 +13636,7 @@
         <v>1842</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>87</v>
       </c>
@@ -13654,7 +13654,7 @@
         <v>1843</v>
       </c>
     </row>
-    <row r="269" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>87</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>87</v>
       </c>
@@ -13866,7 +13866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>87</v>
       </c>
@@ -13884,7 +13884,7 @@
         <v>1846</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>87</v>
       </c>
@@ -13902,7 +13902,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="284" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>87</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>1848</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>87</v>
       </c>
@@ -13938,7 +13938,7 @@
         <v>1849</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>87</v>
       </c>
@@ -13972,7 +13972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>87</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>1851</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>87</v>
       </c>
@@ -14008,7 +14008,7 @@
         <v>1852</v>
       </c>
     </row>
-    <row r="290" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>87</v>
       </c>
@@ -14026,7 +14026,7 @@
         <v>1853</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>87</v>
       </c>
@@ -14076,7 +14076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>87</v>
       </c>
@@ -14110,7 +14110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>87</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>1856</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>87</v>
       </c>
@@ -14162,7 +14162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>87</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>1858</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>87</v>
       </c>
@@ -14198,7 +14198,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
         <v>87</v>
       </c>
@@ -14216,7 +14216,7 @@
         <v>1860</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
         <v>87</v>
       </c>
@@ -14234,7 +14234,7 @@
         <v>1861</v>
       </c>
     </row>
-    <row r="303" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
         <v>87</v>
       </c>
@@ -14252,7 +14252,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
         <v>87</v>
       </c>
@@ -14270,7 +14270,7 @@
         <v>1863</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
         <v>87</v>
       </c>
@@ -14288,7 +14288,7 @@
         <v>1864</v>
       </c>
     </row>
-    <row r="306" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
         <v>87</v>
       </c>
@@ -14322,7 +14322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
         <v>87</v>
       </c>
@@ -14340,7 +14340,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="309" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
         <v>87</v>
       </c>
@@ -14358,7 +14358,7 @@
         <v>1867</v>
       </c>
     </row>
-    <row r="310" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
         <v>87</v>
       </c>
@@ -14392,7 +14392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
         <v>87</v>
       </c>
@@ -14410,7 +14410,7 @@
         <v>1869</v>
       </c>
     </row>
-    <row r="313" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
         <v>87</v>
       </c>
@@ -14428,7 +14428,7 @@
         <v>1870</v>
       </c>
     </row>
-    <row r="314" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
         <v>87</v>
       </c>
@@ -14446,7 +14446,7 @@
         <v>1871</v>
       </c>
     </row>
-    <row r="315" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
         <v>87</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>1872</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
         <v>87</v>
       </c>
@@ -14530,7 +14530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
         <v>87</v>
       </c>
@@ -14548,7 +14548,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="321" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
         <v>87</v>
       </c>
@@ -14566,7 +14566,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
         <v>87</v>
       </c>
@@ -14584,7 +14584,7 @@
         <v>1876</v>
       </c>
     </row>
-    <row r="323" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
         <v>87</v>
       </c>
@@ -14602,7 +14602,7 @@
         <v>1877</v>
       </c>
     </row>
-    <row r="324" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
         <v>87</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>1878</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
         <v>87</v>
       </c>
@@ -14638,7 +14638,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="326" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
         <v>87</v>
       </c>
@@ -14656,7 +14656,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="327" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
         <v>87</v>
       </c>
@@ -14674,7 +14674,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="328" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
         <v>87</v>
       </c>
@@ -14692,7 +14692,7 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="329" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
         <v>87</v>
       </c>
@@ -14710,7 +14710,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="330" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
         <v>87</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="331" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
         <v>87</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="332" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
         <v>87</v>
       </c>
@@ -14764,7 +14764,7 @@
         <v>1886</v>
       </c>
     </row>
-    <row r="333" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
         <v>87</v>
       </c>
@@ -14782,7 +14782,7 @@
         <v>1887</v>
       </c>
     </row>
-    <row r="334" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
         <v>87</v>
       </c>
@@ -14800,7 +14800,7 @@
         <v>1888</v>
       </c>
     </row>
-    <row r="335" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
         <v>87</v>
       </c>
@@ -14818,7 +14818,7 @@
         <v>1889</v>
       </c>
     </row>
-    <row r="336" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
         <v>87</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>1890</v>
       </c>
     </row>
-    <row r="337" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
         <v>87</v>
       </c>
@@ -14854,7 +14854,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="338" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
         <v>87</v>
       </c>
@@ -14872,7 +14872,7 @@
         <v>1892</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
         <v>75</v>
       </c>
@@ -14888,7 +14888,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
         <v>75</v>
       </c>
@@ -14904,7 +14904,7 @@
         <v>1894</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
         <v>75</v>
       </c>
@@ -14920,7 +14920,7 @@
         <v>1895</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
         <v>75</v>
       </c>
@@ -14936,7 +14936,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
         <v>87</v>
       </c>
@@ -14954,7 +14954,7 @@
         <v>1897</v>
       </c>
     </row>
-    <row r="344" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
         <v>87</v>
       </c>
@@ -15084,7 +15084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
         <v>87</v>
       </c>
@@ -15102,7 +15102,7 @@
         <v>1899</v>
       </c>
     </row>
-    <row r="353" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
         <v>87</v>
       </c>
@@ -15120,7 +15120,7 @@
         <v>1900</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
         <v>87</v>
       </c>
@@ -15138,7 +15138,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="355" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
         <v>87</v>
       </c>
@@ -15156,7 +15156,7 @@
         <v>1902</v>
       </c>
     </row>
-    <row r="356" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
         <v>87</v>
       </c>
@@ -15174,7 +15174,7 @@
         <v>1903</v>
       </c>
     </row>
-    <row r="357" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
         <v>87</v>
       </c>
@@ -15192,7 +15192,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="358" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
         <v>87</v>
       </c>
@@ -15210,7 +15210,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="359" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
         <v>87</v>
       </c>
@@ -15228,7 +15228,7 @@
         <v>1906</v>
       </c>
     </row>
-    <row r="360" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
         <v>87</v>
       </c>
@@ -15246,7 +15246,7 @@
         <v>1907</v>
       </c>
     </row>
-    <row r="361" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
         <v>87</v>
       </c>
@@ -15264,7 +15264,7 @@
         <v>1908</v>
       </c>
     </row>
-    <row r="362" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
         <v>87</v>
       </c>
@@ -15282,7 +15282,7 @@
         <v>1909</v>
       </c>
     </row>
-    <row r="363" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
         <v>87</v>
       </c>
@@ -15300,7 +15300,7 @@
         <v>1910</v>
       </c>
     </row>
-    <row r="364" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
         <v>87</v>
       </c>
@@ -15318,7 +15318,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="365" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
         <v>87</v>
       </c>
@@ -15336,7 +15336,7 @@
         <v>1912</v>
       </c>
     </row>
-    <row r="366" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
         <v>87</v>
       </c>
@@ -15354,7 +15354,7 @@
         <v>1913</v>
       </c>
     </row>
-    <row r="367" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
         <v>87</v>
       </c>
@@ -15372,7 +15372,7 @@
         <v>1914</v>
       </c>
     </row>
-    <row r="368" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
         <v>87</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>1915</v>
       </c>
     </row>
-    <row r="369" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
         <v>87</v>
       </c>
@@ -15408,7 +15408,7 @@
         <v>1916</v>
       </c>
     </row>
-    <row r="370" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
         <v>87</v>
       </c>
@@ -15426,7 +15426,7 @@
         <v>1917</v>
       </c>
     </row>
-    <row r="371" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
         <v>87</v>
       </c>
@@ -15444,7 +15444,7 @@
         <v>1918</v>
       </c>
     </row>
-    <row r="372" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
         <v>87</v>
       </c>
@@ -15462,7 +15462,7 @@
         <v>1919</v>
       </c>
     </row>
-    <row r="373" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
         <v>87</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>1920</v>
       </c>
     </row>
-    <row r="374" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
         <v>87</v>
       </c>
@@ -15498,7 +15498,7 @@
         <v>1921</v>
       </c>
     </row>
-    <row r="375" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
         <v>87</v>
       </c>
@@ -15516,7 +15516,7 @@
         <v>1922</v>
       </c>
     </row>
-    <row r="376" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
         <v>87</v>
       </c>
@@ -15534,7 +15534,7 @@
         <v>1923</v>
       </c>
     </row>
-    <row r="377" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
         <v>87</v>
       </c>
@@ -15552,7 +15552,7 @@
         <v>1924</v>
       </c>
     </row>
-    <row r="378" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
         <v>87</v>
       </c>
@@ -15586,7 +15586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
         <v>87</v>
       </c>
@@ -15604,7 +15604,7 @@
         <v>1926</v>
       </c>
     </row>
-    <row r="381" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
         <v>87</v>
       </c>
@@ -15638,7 +15638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
         <v>87</v>
       </c>
@@ -15658,7 +15658,7 @@
         <v>1928</v>
       </c>
     </row>
-    <row r="384" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
         <v>87</v>
       </c>
@@ -15676,7 +15676,7 @@
         <v>1929</v>
       </c>
     </row>
-    <row r="385" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
         <v>87</v>
       </c>
@@ -15696,7 +15696,7 @@
         <v>1930</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
         <v>87</v>
       </c>
@@ -15714,7 +15714,7 @@
         <v>1931</v>
       </c>
     </row>
-    <row r="387" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
         <v>87</v>
       </c>
@@ -15732,7 +15732,7 @@
         <v>1932</v>
       </c>
     </row>
-    <row r="388" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
         <v>87</v>
       </c>
@@ -15750,7 +15750,7 @@
         <v>1933</v>
       </c>
     </row>
-    <row r="389" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
         <v>87</v>
       </c>
@@ -15770,7 +15770,7 @@
         <v>1934</v>
       </c>
     </row>
-    <row r="390" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
         <v>87</v>
       </c>
@@ -15788,7 +15788,7 @@
         <v>1935</v>
       </c>
     </row>
-    <row r="391" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
         <v>87</v>
       </c>
@@ -15806,7 +15806,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="392" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
         <v>87</v>
       </c>
@@ -15824,7 +15824,7 @@
         <v>1937</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
         <v>87</v>
       </c>
@@ -15842,7 +15842,7 @@
         <v>1938</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
         <v>87</v>
       </c>
@@ -15860,7 +15860,7 @@
         <v>1939</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
         <v>87</v>
       </c>
@@ -15878,7 +15878,7 @@
         <v>1940</v>
       </c>
     </row>
-    <row r="396" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
         <v>87</v>
       </c>
@@ -15896,7 +15896,7 @@
         <v>1941</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
         <v>87</v>
       </c>
@@ -15914,7 +15914,7 @@
         <v>1942</v>
       </c>
     </row>
-    <row r="398" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
         <v>87</v>
       </c>
@@ -15932,7 +15932,7 @@
         <v>1943</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
         <v>87</v>
       </c>
@@ -15950,7 +15950,7 @@
         <v>1944</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
         <v>87</v>
       </c>
@@ -15968,7 +15968,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
         <v>87</v>
       </c>
@@ -15986,7 +15986,7 @@
         <v>1946</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
         <v>87</v>
       </c>
@@ -16004,7 +16004,7 @@
         <v>1947</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
         <v>87</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>1948</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
         <v>87</v>
       </c>
@@ -16040,7 +16040,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
         <v>87</v>
       </c>
@@ -16058,7 +16058,7 @@
         <v>1950</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
         <v>87</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>1951</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
         <v>87</v>
       </c>
@@ -16094,7 +16094,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="408" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
         <v>87</v>
       </c>
@@ -16114,7 +16114,7 @@
         <v>1953</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
         <v>87</v>
       </c>
@@ -16132,7 +16132,7 @@
         <v>1954</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
         <v>87</v>
       </c>
@@ -16150,7 +16150,7 @@
         <v>1955</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
         <v>87</v>
       </c>
@@ -16168,7 +16168,7 @@
         <v>1956</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
         <v>87</v>
       </c>
@@ -16186,7 +16186,7 @@
         <v>1957</v>
       </c>
     </row>
-    <row r="413" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
         <v>87</v>
       </c>
@@ -16204,7 +16204,7 @@
         <v>1958</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
         <v>87</v>
       </c>
@@ -16222,7 +16222,7 @@
         <v>1959</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
         <v>87</v>
       </c>
@@ -16272,7 +16272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
         <v>87</v>
       </c>
@@ -16322,7 +16322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
         <v>75</v>
       </c>
@@ -16338,7 +16338,7 @@
         <v>1962</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>75</v>
       </c>
@@ -16354,7 +16354,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>75</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>1964</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>75</v>
       </c>
@@ -16386,7 +16386,7 @@
         <v>1965</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>75</v>
       </c>
@@ -16402,7 +16402,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>75</v>
       </c>
@@ -16418,7 +16418,7 @@
         <v>1967</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>75</v>
       </c>
@@ -16434,7 +16434,7 @@
         <v>1968</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>87</v>
       </c>
@@ -16452,7 +16452,7 @@
         <v>1969</v>
       </c>
     </row>
-    <row r="429" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
         <v>75</v>
       </c>
@@ -16468,7 +16468,7 @@
         <v>1970</v>
       </c>
     </row>
-    <row r="430" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>75</v>
       </c>
@@ -16484,7 +16484,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="431" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>75</v>
       </c>
@@ -16500,7 +16500,7 @@
         <v>1972</v>
       </c>
     </row>
-    <row r="432" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
         <v>75</v>
       </c>
@@ -16516,7 +16516,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="433" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
         <v>75</v>
       </c>
@@ -16548,7 +16548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
         <v>87</v>
       </c>
@@ -16566,7 +16566,7 @@
         <v>1975</v>
       </c>
     </row>
-    <row r="436" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
         <v>87</v>
       </c>
@@ -16616,7 +16616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
         <v>75</v>
       </c>
@@ -16632,7 +16632,7 @@
         <v>1977</v>
       </c>
     </row>
-    <row r="440" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
         <v>75</v>
       </c>
@@ -16648,7 +16648,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="441" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
         <v>75</v>
       </c>
@@ -16664,7 +16664,7 @@
         <v>1979</v>
       </c>
     </row>
-    <row r="442" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
         <v>75</v>
       </c>
@@ -16680,7 +16680,7 @@
         <v>1980</v>
       </c>
     </row>
-    <row r="443" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
         <v>75</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
         <v>87</v>
       </c>
@@ -16778,7 +16778,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="449" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
         <v>87</v>
       </c>
@@ -16796,7 +16796,7 @@
         <v>1983</v>
       </c>
     </row>
-    <row r="450" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
         <v>87</v>
       </c>
@@ -16814,7 +16814,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="451" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
         <v>87</v>
       </c>
@@ -16832,7 +16832,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
         <v>87</v>
       </c>
@@ -16850,7 +16850,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
         <v>87</v>
       </c>
@@ -16868,7 +16868,7 @@
         <v>1987</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
         <v>87</v>
       </c>
@@ -16886,7 +16886,7 @@
         <v>1988</v>
       </c>
     </row>
-    <row r="455" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
         <v>87</v>
       </c>
@@ -16952,7 +16952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
         <v>87</v>
       </c>
@@ -16970,7 +16970,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="460" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
         <v>87</v>
       </c>
@@ -16988,7 +16988,7 @@
         <v>1990</v>
       </c>
     </row>
-    <row r="461" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
         <v>87</v>
       </c>
@@ -17038,7 +17038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
         <v>87</v>
       </c>
@@ -17056,7 +17056,7 @@
         <v>1992</v>
       </c>
     </row>
-    <row r="465" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
         <v>87</v>
       </c>
@@ -17074,7 +17074,7 @@
         <v>1993</v>
       </c>
     </row>
-    <row r="466" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
         <v>87</v>
       </c>
@@ -17092,7 +17092,7 @@
         <v>1994</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
         <v>87</v>
       </c>
@@ -17110,7 +17110,7 @@
         <v>1995</v>
       </c>
     </row>
-    <row r="468" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
         <v>87</v>
       </c>
@@ -17128,7 +17128,7 @@
         <v>1996</v>
       </c>
     </row>
-    <row r="469" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
         <v>87</v>
       </c>
@@ -17146,7 +17146,7 @@
         <v>1997</v>
       </c>
     </row>
-    <row r="470" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
         <v>87</v>
       </c>
@@ -17166,7 +17166,7 @@
         <v>1998</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
         <v>87</v>
       </c>
@@ -17186,7 +17186,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="472" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
         <v>87</v>
       </c>
@@ -17204,7 +17204,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="473" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
         <v>87</v>
       </c>
@@ -17222,7 +17222,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="474" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
         <v>87</v>
       </c>
@@ -17402,7 +17402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
         <v>75</v>
       </c>
@@ -17418,7 +17418,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="486" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
         <v>75</v>
       </c>
@@ -17434,7 +17434,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="487" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
         <v>75</v>
       </c>
@@ -17484,7 +17484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
         <v>87</v>
       </c>
@@ -17502,7 +17502,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="491" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
         <v>87</v>
       </c>
@@ -17606,7 +17606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
         <v>75</v>
       </c>
@@ -17622,7 +17622,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="498" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
         <v>75</v>
       </c>
@@ -17638,7 +17638,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="499" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
         <v>75</v>
       </c>
@@ -17654,7 +17654,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
         <v>75</v>
       </c>
@@ -17670,7 +17670,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="501" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
         <v>75</v>
       </c>
@@ -17686,7 +17686,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="502" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
         <v>75</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="503" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
         <v>75</v>
       </c>
@@ -17718,7 +17718,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="504" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
         <v>87</v>
       </c>
@@ -17736,7 +17736,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="505" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
         <v>87</v>
       </c>
@@ -17770,7 +17770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
         <v>87</v>
       </c>
@@ -17892,7 +17892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
         <v>593</v>
       </c>
@@ -17908,7 +17908,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="515" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
         <v>593</v>
       </c>
@@ -17924,7 +17924,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="516" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
         <v>593</v>
       </c>
@@ -17940,7 +17940,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="517" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
         <v>593</v>
       </c>
@@ -17956,7 +17956,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="518" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
         <v>593</v>
       </c>
@@ -17988,7 +17988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
         <v>593</v>
       </c>
@@ -18004,7 +18004,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="521" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
         <v>593</v>
       </c>
@@ -18020,7 +18020,7 @@
         <v>2024</v>
       </c>
     </row>
-    <row r="522" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
         <v>593</v>
       </c>
@@ -18036,7 +18036,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="523" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
         <v>593</v>
       </c>
@@ -18052,7 +18052,7 @@
         <v>2026</v>
       </c>
     </row>
-    <row r="524" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
         <v>593</v>
       </c>
@@ -18068,7 +18068,7 @@
         <v>2027</v>
       </c>
     </row>
-    <row r="525" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
         <v>593</v>
       </c>
@@ -18084,7 +18084,7 @@
         <v>2028</v>
       </c>
     </row>
-    <row r="526" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
         <v>593</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>2029</v>
       </c>
     </row>
-    <row r="527" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
         <v>593</v>
       </c>
@@ -18116,7 +18116,7 @@
         <v>2030</v>
       </c>
     </row>
-    <row r="528" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
         <v>593</v>
       </c>
@@ -18132,7 +18132,7 @@
         <v>2031</v>
       </c>
     </row>
-    <row r="529" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
         <v>593</v>
       </c>
@@ -18148,7 +18148,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="530" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
         <v>593</v>
       </c>
@@ -18164,7 +18164,7 @@
         <v>2033</v>
       </c>
     </row>
-    <row r="531" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
         <v>593</v>
       </c>
@@ -18180,7 +18180,7 @@
         <v>2034</v>
       </c>
     </row>
-    <row r="532" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
         <v>593</v>
       </c>
@@ -18196,7 +18196,7 @@
         <v>2035</v>
       </c>
     </row>
-    <row r="533" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
         <v>593</v>
       </c>
@@ -18212,7 +18212,7 @@
         <v>2036</v>
       </c>
     </row>
-    <row r="534" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
         <v>593</v>
       </c>
@@ -18228,7 +18228,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="535" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
         <v>593</v>
       </c>
@@ -18244,7 +18244,7 @@
         <v>2038</v>
       </c>
     </row>
-    <row r="536" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
         <v>593</v>
       </c>
@@ -18260,7 +18260,7 @@
         <v>2039</v>
       </c>
     </row>
-    <row r="537" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
         <v>593</v>
       </c>
@@ -18276,7 +18276,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="538" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
         <v>593</v>
       </c>
@@ -18292,7 +18292,7 @@
         <v>2041</v>
       </c>
     </row>
-    <row r="539" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
         <v>593</v>
       </c>
@@ -18308,7 +18308,7 @@
         <v>2042</v>
       </c>
     </row>
-    <row r="540" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
         <v>593</v>
       </c>
@@ -18324,7 +18324,7 @@
         <v>2043</v>
       </c>
     </row>
-    <row r="541" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
         <v>593</v>
       </c>
@@ -18340,7 +18340,7 @@
         <v>2044</v>
       </c>
     </row>
-    <row r="542" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
         <v>593</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>2045</v>
       </c>
     </row>
-    <row r="543" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
         <v>593</v>
       </c>
@@ -18372,7 +18372,7 @@
         <v>2046</v>
       </c>
     </row>
-    <row r="544" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
         <v>593</v>
       </c>
@@ -18388,7 +18388,7 @@
         <v>2047</v>
       </c>
     </row>
-    <row r="545" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
         <v>593</v>
       </c>
@@ -18420,7 +18420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
         <v>593</v>
       </c>
@@ -18438,7 +18438,7 @@
         <v>2049</v>
       </c>
     </row>
-    <row r="548" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
         <v>593</v>
       </c>
@@ -18454,7 +18454,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="549" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
         <v>593</v>
       </c>
@@ -18470,7 +18470,7 @@
         <v>2051</v>
       </c>
     </row>
-    <row r="550" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
         <v>593</v>
       </c>
@@ -18486,7 +18486,7 @@
         <v>2052</v>
       </c>
     </row>
-    <row r="551" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
         <v>593</v>
       </c>
@@ -18502,7 +18502,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="552" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
         <v>593</v>
       </c>
@@ -18518,7 +18518,7 @@
         <v>2054</v>
       </c>
     </row>
-    <row r="553" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
         <v>593</v>
       </c>
@@ -18536,7 +18536,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="554" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
         <v>593</v>
       </c>
@@ -18554,7 +18554,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="555" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
         <v>593</v>
       </c>
@@ -18572,7 +18572,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="556" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
         <v>593</v>
       </c>
@@ -18590,7 +18590,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="557" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
         <v>593</v>
       </c>
@@ -18608,7 +18608,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="558" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
         <v>593</v>
       </c>
@@ -18626,7 +18626,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="559" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
         <v>593</v>
       </c>
@@ -18644,7 +18644,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="560" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
         <v>593</v>
       </c>
@@ -18662,7 +18662,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="561" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
         <v>593</v>
       </c>
@@ -18680,7 +18680,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="562" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
         <v>593</v>
       </c>
@@ -18698,7 +18698,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="563" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
         <v>593</v>
       </c>
@@ -18714,7 +18714,7 @@
         <v>2065</v>
       </c>
     </row>
-    <row r="564" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
         <v>593</v>
       </c>
@@ -18730,7 +18730,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="565" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
         <v>593</v>
       </c>
@@ -18746,7 +18746,7 @@
         <v>2067</v>
       </c>
     </row>
-    <row r="566" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
         <v>593</v>
       </c>
@@ -18762,7 +18762,7 @@
         <v>2068</v>
       </c>
     </row>
-    <row r="567" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
         <v>593</v>
       </c>
@@ -18778,7 +18778,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="568" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
         <v>593</v>
       </c>
@@ -18794,7 +18794,7 @@
         <v>2070</v>
       </c>
     </row>
-    <row r="569" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
         <v>593</v>
       </c>
@@ -18810,7 +18810,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="570" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
         <v>593</v>
       </c>
@@ -18860,7 +18860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
         <v>593</v>
       </c>
@@ -18876,7 +18876,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="574" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
         <v>593</v>
       </c>
@@ -18892,7 +18892,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="575" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
         <v>593</v>
       </c>
@@ -18908,7 +18908,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="576" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
         <v>593</v>
       </c>
@@ -18924,7 +18924,7 @@
         <v>2076</v>
       </c>
     </row>
-    <row r="577" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
         <v>593</v>
       </c>
@@ -18940,7 +18940,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="578" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
         <v>593</v>
       </c>
@@ -18956,7 +18956,7 @@
         <v>2078</v>
       </c>
     </row>
-    <row r="579" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
         <v>593</v>
       </c>
@@ -18974,7 +18974,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="580" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
         <v>593</v>
       </c>
@@ -18990,7 +18990,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="581" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
         <v>593</v>
       </c>
@@ -19006,7 +19006,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="582" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
         <v>593</v>
       </c>
@@ -19022,7 +19022,7 @@
         <v>2082</v>
       </c>
     </row>
-    <row r="583" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
         <v>593</v>
       </c>
@@ -19038,7 +19038,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="584" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
         <v>593</v>
       </c>
@@ -19054,7 +19054,7 @@
         <v>2084</v>
       </c>
     </row>
-    <row r="585" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
         <v>593</v>
       </c>
@@ -19070,7 +19070,7 @@
         <v>2085</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
         <v>593</v>
       </c>
@@ -19086,7 +19086,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="587" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
         <v>593</v>
       </c>
@@ -19102,7 +19102,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="588" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
         <v>593</v>
       </c>
@@ -19118,7 +19118,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
         <v>593</v>
       </c>
@@ -19134,7 +19134,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="590" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
         <v>593</v>
       </c>
@@ -19150,7 +19150,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="591" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
         <v>593</v>
       </c>
@@ -19236,7 +19236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
         <v>593</v>
       </c>
@@ -19252,7 +19252,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="597" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
         <v>593</v>
       </c>
@@ -19268,7 +19268,7 @@
         <v>2093</v>
       </c>
     </row>
-    <row r="598" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
         <v>593</v>
       </c>
@@ -19284,7 +19284,7 @@
         <v>2094</v>
       </c>
     </row>
-    <row r="599" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
         <v>593</v>
       </c>
@@ -19300,7 +19300,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="600" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
         <v>593</v>
       </c>
@@ -19316,7 +19316,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="601" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
         <v>593</v>
       </c>
@@ -19332,7 +19332,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
         <v>593</v>
       </c>
@@ -19348,7 +19348,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="603" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
         <v>593</v>
       </c>
@@ -19364,7 +19364,7 @@
         <v>2099</v>
       </c>
     </row>
-    <row r="604" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
         <v>593</v>
       </c>
@@ -19396,7 +19396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
         <v>593</v>
       </c>
@@ -19412,7 +19412,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="607" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
         <v>593</v>
       </c>
@@ -19444,7 +19444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
         <v>593</v>
       </c>
@@ -19460,7 +19460,7 @@
         <v>2103</v>
       </c>
     </row>
-    <row r="610" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
         <v>593</v>
       </c>
@@ -19476,7 +19476,7 @@
         <v>2104</v>
       </c>
     </row>
-    <row r="611" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
         <v>593</v>
       </c>
@@ -19492,7 +19492,7 @@
         <v>2105</v>
       </c>
     </row>
-    <row r="612" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
         <v>593</v>
       </c>
@@ -19524,7 +19524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
         <v>593</v>
       </c>
@@ -19592,7 +19592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
         <v>593</v>
       </c>
@@ -19608,7 +19608,7 @@
         <v>2108</v>
       </c>
     </row>
-    <row r="619" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
         <v>593</v>
       </c>
@@ -19640,7 +19640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
         <v>593</v>
       </c>
@@ -19656,7 +19656,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="622" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
         <v>593</v>
       </c>
@@ -19672,7 +19672,7 @@
         <v>2111</v>
       </c>
     </row>
-    <row r="623" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
         <v>593</v>
       </c>
@@ -19688,7 +19688,7 @@
         <v>2112</v>
       </c>
     </row>
-    <row r="624" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
         <v>593</v>
       </c>
@@ -19704,7 +19704,7 @@
         <v>2113</v>
       </c>
     </row>
-    <row r="625" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
         <v>593</v>
       </c>
@@ -19720,7 +19720,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="626" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
         <v>593</v>
       </c>
@@ -19736,7 +19736,7 @@
         <v>2115</v>
       </c>
     </row>
-    <row r="627" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
         <v>593</v>
       </c>
@@ -19804,7 +19804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
         <v>593</v>
       </c>
@@ -19818,7 +19818,7 @@
         <v>2117</v>
       </c>
     </row>
-    <row r="632" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
         <v>593</v>
       </c>
@@ -19900,7 +19900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
         <v>593</v>
       </c>
@@ -19916,7 +19916,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="638" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
         <v>593</v>
       </c>
@@ -19932,7 +19932,7 @@
         <v>2120</v>
       </c>
     </row>
-    <row r="639" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
         <v>593</v>
       </c>
@@ -19950,7 +19950,7 @@
         <v>2121</v>
       </c>
     </row>
-    <row r="640" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
         <v>593</v>
       </c>
@@ -19966,7 +19966,7 @@
         <v>2122</v>
       </c>
     </row>
-    <row r="641" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
         <v>593</v>
       </c>
@@ -19984,7 +19984,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="642" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
         <v>593</v>
       </c>
@@ -20002,7 +20002,7 @@
         <v>2124</v>
       </c>
     </row>
-    <row r="643" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
         <v>593</v>
       </c>
@@ -20020,7 +20020,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="644" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
         <v>593</v>
       </c>
@@ -20036,7 +20036,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="645" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
         <v>593</v>
       </c>
@@ -20052,7 +20052,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="646" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
         <v>593</v>
       </c>
@@ -20068,7 +20068,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="647" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
         <v>593</v>
       </c>
@@ -20084,7 +20084,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="648" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
         <v>593</v>
       </c>
@@ -20100,7 +20100,7 @@
         <v>2130</v>
       </c>
     </row>
-    <row r="649" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
         <v>593</v>
       </c>
@@ -20116,7 +20116,7 @@
         <v>2131</v>
       </c>
     </row>
-    <row r="650" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
         <v>593</v>
       </c>
@@ -20132,7 +20132,7 @@
         <v>2132</v>
       </c>
     </row>
-    <row r="651" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
         <v>593</v>
       </c>
@@ -20148,7 +20148,7 @@
         <v>2133</v>
       </c>
     </row>
-    <row r="652" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
         <v>593</v>
       </c>
@@ -20164,7 +20164,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="653" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
         <v>593</v>
       </c>
@@ -20180,7 +20180,7 @@
         <v>2135</v>
       </c>
     </row>
-    <row r="654" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
         <v>593</v>
       </c>
@@ -20196,7 +20196,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="655" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
         <v>593</v>
       </c>
@@ -20212,7 +20212,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="656" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
         <v>593</v>
       </c>
@@ -20228,7 +20228,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="657" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
         <v>593</v>
       </c>
@@ -20244,7 +20244,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="658" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
         <v>593</v>
       </c>
@@ -20324,7 +20324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
         <v>593</v>
       </c>
@@ -20340,7 +20340,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="664" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
         <v>593</v>
       </c>
@@ -20356,7 +20356,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="665" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
         <v>593</v>
       </c>
@@ -20388,7 +20388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
         <v>593</v>
       </c>
@@ -20404,7 +20404,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="668" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
         <v>593</v>
       </c>
@@ -20420,7 +20420,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="669" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
         <v>593</v>
       </c>
@@ -20452,7 +20452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
         <v>593</v>
       </c>
@@ -20468,7 +20468,7 @@
         <v>2147</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A672" s="6" t="s">
         <v>934</v>
       </c>
@@ -20484,7 +20484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
         <v>593</v>
       </c>
@@ -20500,7 +20500,7 @@
         <v>2148</v>
       </c>
     </row>
-    <row r="674" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
         <v>593</v>
       </c>
@@ -20518,7 +20518,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="675" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
         <v>593</v>
       </c>
@@ -20534,7 +20534,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="676" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
         <v>593</v>
       </c>
@@ -20566,7 +20566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
         <v>593</v>
       </c>
@@ -20582,7 +20582,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="679" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
         <v>593</v>
       </c>
@@ -20614,7 +20614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
         <v>593</v>
       </c>
@@ -20630,7 +20630,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="682" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
         <v>593</v>
       </c>
@@ -20646,7 +20646,7 @@
         <v>2155</v>
       </c>
     </row>
-    <row r="683" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
         <v>593</v>
       </c>
@@ -20662,7 +20662,7 @@
         <v>2156</v>
       </c>
     </row>
-    <row r="684" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
         <v>593</v>
       </c>
@@ -20678,7 +20678,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="685" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
         <v>593</v>
       </c>
@@ -20694,7 +20694,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="686" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
         <v>593</v>
       </c>
@@ -20710,7 +20710,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="687" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
         <v>593</v>
       </c>
@@ -20728,7 +20728,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="688" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
         <v>593</v>
       </c>
@@ -20744,7 +20744,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="689" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
         <v>593</v>
       </c>
@@ -20760,7 +20760,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="690" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
         <v>593</v>
       </c>
@@ -20776,7 +20776,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="691" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
         <v>593</v>
       </c>
@@ -20792,7 +20792,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="692" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
         <v>593</v>
       </c>
@@ -20808,7 +20808,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="693" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
         <v>593</v>
       </c>
@@ -20824,7 +20824,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="694" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
         <v>593</v>
       </c>
@@ -20840,7 +20840,7 @@
         <v>2167</v>
       </c>
     </row>
-    <row r="695" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
         <v>593</v>
       </c>
@@ -20856,7 +20856,7 @@
         <v>2168</v>
       </c>
     </row>
-    <row r="696" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
         <v>593</v>
       </c>
@@ -20888,7 +20888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="698" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
         <v>593</v>
       </c>
@@ -20904,7 +20904,7 @@
         <v>2170</v>
       </c>
     </row>
-    <row r="699" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
         <v>593</v>
       </c>
@@ -20920,7 +20920,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="700" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
         <v>593</v>
       </c>
@@ -20936,7 +20936,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="701" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
         <v>593</v>
       </c>
@@ -20984,7 +20984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
         <v>593</v>
       </c>
@@ -21000,7 +21000,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="705" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
         <v>593</v>
       </c>
@@ -21016,7 +21016,7 @@
         <v>2175</v>
       </c>
     </row>
-    <row r="706" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
         <v>593</v>
       </c>
@@ -21032,7 +21032,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="707" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
         <v>593</v>
       </c>
@@ -21048,7 +21048,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="708" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
         <v>593</v>
       </c>
@@ -21064,7 +21064,7 @@
         <v>2178</v>
       </c>
     </row>
-    <row r="709" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
         <v>593</v>
       </c>
@@ -21080,7 +21080,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="710" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
         <v>593</v>
       </c>
@@ -21096,7 +21096,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="711" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
         <v>593</v>
       </c>
@@ -21112,7 +21112,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="712" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
         <v>593</v>
       </c>
@@ -21128,7 +21128,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="713" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
         <v>593</v>
       </c>
@@ -21144,7 +21144,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="714" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
         <v>593</v>
       </c>
@@ -21160,7 +21160,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="715" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
         <v>593</v>
       </c>
@@ -21176,7 +21176,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="716" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
         <v>593</v>
       </c>
@@ -21192,7 +21192,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="717" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
         <v>593</v>
       </c>
@@ -21208,7 +21208,7 @@
         <v>2187</v>
       </c>
     </row>
-    <row r="718" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
         <v>593</v>
       </c>
@@ -21224,7 +21224,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="719" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
         <v>593</v>
       </c>
@@ -21240,7 +21240,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A720" s="6" t="s">
         <v>934</v>
       </c>
@@ -21256,7 +21256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="721" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
         <v>593</v>
       </c>
@@ -21272,7 +21272,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="722" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
         <v>593</v>
       </c>
@@ -21288,7 +21288,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="723" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
         <v>593</v>
       </c>
@@ -21304,7 +21304,7 @@
         <v>2192</v>
       </c>
     </row>
-    <row r="724" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
         <v>593</v>
       </c>
@@ -21320,7 +21320,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="725" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
         <v>593</v>
       </c>
@@ -21336,7 +21336,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="726" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
         <v>593</v>
       </c>
@@ -21352,7 +21352,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="727" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
         <v>593</v>
       </c>
@@ -21368,7 +21368,7 @@
         <v>2196</v>
       </c>
     </row>
-    <row r="728" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
         <v>593</v>
       </c>
@@ -21384,7 +21384,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="729" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
         <v>593</v>
       </c>
@@ -21400,7 +21400,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="730" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
         <v>593</v>
       </c>
@@ -21416,7 +21416,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="731" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
         <v>593</v>
       </c>
@@ -21432,7 +21432,7 @@
         <v>2200</v>
       </c>
     </row>
-    <row r="732" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
         <v>593</v>
       </c>
@@ -21448,7 +21448,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="733" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
         <v>593</v>
       </c>
@@ -21464,7 +21464,7 @@
         <v>2202</v>
       </c>
     </row>
-    <row r="734" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
         <v>593</v>
       </c>
@@ -21480,7 +21480,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="735" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
         <v>593</v>
       </c>
@@ -21512,7 +21512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="737" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
         <v>593</v>
       </c>
@@ -21528,7 +21528,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="738" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
         <v>593</v>
       </c>
@@ -21544,7 +21544,7 @@
         <v>2206</v>
       </c>
     </row>
-    <row r="739" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
         <v>593</v>
       </c>
@@ -21560,7 +21560,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="740" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
         <v>593</v>
       </c>
@@ -21576,7 +21576,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="741" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
         <v>593</v>
       </c>
@@ -21592,7 +21592,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="742" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
         <v>593</v>
       </c>
@@ -21608,7 +21608,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="743" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
         <v>593</v>
       </c>
@@ -21624,7 +21624,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="744" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
         <v>593</v>
       </c>
@@ -21640,7 +21640,7 @@
         <v>2212</v>
       </c>
     </row>
-    <row r="745" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
         <v>593</v>
       </c>
@@ -21656,7 +21656,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="746" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
         <v>593</v>
       </c>
@@ -21672,7 +21672,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="747" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
         <v>593</v>
       </c>
@@ -21690,7 +21690,7 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="748" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
         <v>593</v>
       </c>
@@ -21724,7 +21724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="750" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
         <v>593</v>
       </c>
@@ -21740,7 +21740,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="751" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
         <v>593</v>
       </c>
@@ -21756,7 +21756,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="752" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
         <v>593</v>
       </c>
@@ -21774,7 +21774,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="753" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
         <v>593</v>
       </c>
@@ -21792,7 +21792,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="754" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
         <v>593</v>
       </c>
@@ -21826,7 +21826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="756" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
         <v>593</v>
       </c>
@@ -21842,7 +21842,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="757" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
         <v>593</v>
       </c>
@@ -21858,7 +21858,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="758" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
         <v>593</v>
       </c>
@@ -21874,7 +21874,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="759" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
         <v>593</v>
       </c>
@@ -21890,7 +21890,7 @@
         <v>2225</v>
       </c>
     </row>
-    <row r="760" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
         <v>593</v>
       </c>
@@ -21906,7 +21906,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="761" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
         <v>593</v>
       </c>
@@ -21922,7 +21922,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="762" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A762" s="1" t="s">
         <v>593</v>
       </c>
@@ -21938,7 +21938,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="763" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A763" s="1" t="s">
         <v>593</v>
       </c>
@@ -21954,7 +21954,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="764" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A764" s="1" t="s">
         <v>593</v>
       </c>
@@ -21970,7 +21970,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="765" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A765" s="1" t="s">
         <v>593</v>
       </c>
@@ -21986,7 +21986,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="766" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A766" s="1" t="s">
         <v>593</v>
       </c>
@@ -22002,7 +22002,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="767" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A767" s="1" t="s">
         <v>593</v>
       </c>
@@ -22034,7 +22034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="769" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A769" s="1" t="s">
         <v>593</v>
       </c>
@@ -22050,7 +22050,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="770" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A770" s="1" t="s">
         <v>593</v>
       </c>
@@ -22066,7 +22066,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="771" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771" s="1" t="s">
         <v>593</v>
       </c>
@@ -22098,7 +22098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="773" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A773" s="1" t="s">
         <v>593</v>
       </c>
@@ -22114,7 +22114,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="774" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A774" s="1" t="s">
         <v>593</v>
       </c>
@@ -22130,7 +22130,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="775" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A775" s="1" t="s">
         <v>593</v>
       </c>
@@ -22146,7 +22146,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="776" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A776" s="1" t="s">
         <v>593</v>
       </c>
@@ -22162,7 +22162,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="777" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A777" s="1" t="s">
         <v>593</v>
       </c>
@@ -22178,7 +22178,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="778" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A778" s="1" t="s">
         <v>593</v>
       </c>
@@ -22194,7 +22194,7 @@
         <v>2242</v>
       </c>
     </row>
-    <row r="779" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A779" s="1" t="s">
         <v>593</v>
       </c>
@@ -22210,7 +22210,7 @@
         <v>2243</v>
       </c>
     </row>
-    <row r="780" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A780" s="1" t="s">
         <v>593</v>
       </c>
@@ -22242,7 +22242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="782" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782" s="1" t="s">
         <v>593</v>
       </c>
@@ -22290,7 +22290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="785" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A785" s="1" t="s">
         <v>593</v>
       </c>
@@ -22308,7 +22308,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="786" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A786" s="1" t="s">
         <v>593</v>
       </c>
@@ -22324,7 +22324,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="787" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A787" s="1" t="s">
         <v>593</v>
       </c>
@@ -22356,7 +22356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="789" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A789" s="1" t="s">
         <v>593</v>
       </c>
@@ -22372,7 +22372,7 @@
         <v>2249</v>
       </c>
     </row>
-    <row r="790" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A790" s="1" t="s">
         <v>593</v>
       </c>
@@ -22404,7 +22404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A792" s="1" t="s">
         <v>593</v>
       </c>
@@ -22420,7 +22420,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="793" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A793" s="1" t="s">
         <v>593</v>
       </c>
@@ -22436,7 +22436,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="794" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A794" s="1" t="s">
         <v>593</v>
       </c>
@@ -22452,7 +22452,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="795" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A795" s="1" t="s">
         <v>593</v>
       </c>
@@ -22468,7 +22468,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="796" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A796" s="1" t="s">
         <v>593</v>
       </c>
@@ -22484,7 +22484,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="797" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A797" s="1" t="s">
         <v>593</v>
       </c>
@@ -22500,7 +22500,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="798" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A798" s="1" t="s">
         <v>593</v>
       </c>
@@ -22516,7 +22516,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="799" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A799" s="1" t="s">
         <v>593</v>
       </c>
@@ -22532,7 +22532,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="800" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A800" s="1" t="s">
         <v>593</v>
       </c>
@@ -22548,7 +22548,7 @@
         <v>2259</v>
       </c>
     </row>
-    <row r="801" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A801" s="1" t="s">
         <v>593</v>
       </c>
@@ -22564,7 +22564,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="802" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A802" s="1" t="s">
         <v>593</v>
       </c>
@@ -22582,7 +22582,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="803" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A803" s="1" t="s">
         <v>593</v>
       </c>
@@ -22598,7 +22598,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="804" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A804" s="1" t="s">
         <v>593</v>
       </c>
@@ -22614,7 +22614,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="805" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A805" s="1" t="s">
         <v>593</v>
       </c>
@@ -22630,7 +22630,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="806" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A806" s="1" t="s">
         <v>593</v>
       </c>
@@ -22662,7 +22662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="808" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A808" s="1" t="s">
         <v>593</v>
       </c>
@@ -22678,7 +22678,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="809" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A809" s="1" t="s">
         <v>593</v>
       </c>
@@ -22694,7 +22694,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="810" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A810" s="1" t="s">
         <v>593</v>
       </c>
@@ -22710,7 +22710,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="811" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A811" s="1" t="s">
         <v>593</v>
       </c>
@@ -22726,7 +22726,7 @@
         <v>2269</v>
       </c>
     </row>
-    <row r="812" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A812" s="1" t="s">
         <v>593</v>
       </c>
@@ -22742,7 +22742,7 @@
         <v>2270</v>
       </c>
     </row>
-    <row r="813" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A813" s="1" t="s">
         <v>593</v>
       </c>
@@ -22758,7 +22758,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="814" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A814" s="1" t="s">
         <v>593</v>
       </c>
@@ -22774,7 +22774,7 @@
         <v>2272</v>
       </c>
     </row>
-    <row r="815" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A815" s="1" t="s">
         <v>593</v>
       </c>
@@ -22790,7 +22790,7 @@
         <v>2273</v>
       </c>
     </row>
-    <row r="816" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A816" s="1" t="s">
         <v>593</v>
       </c>
@@ -22806,7 +22806,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="817" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A817" s="1" t="s">
         <v>593</v>
       </c>
@@ -22822,7 +22822,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="818" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A818" s="1" t="s">
         <v>593</v>
       </c>
@@ -22838,7 +22838,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="819" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A819" s="1" t="s">
         <v>593</v>
       </c>
@@ -22854,7 +22854,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="820" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A820" s="1" t="s">
         <v>593</v>
       </c>
@@ -22870,7 +22870,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="821" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A821" s="1" t="s">
         <v>593</v>
       </c>
@@ -22902,7 +22902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A823" s="1" t="s">
         <v>593</v>
       </c>
@@ -22918,7 +22918,7 @@
         <v>2280</v>
       </c>
     </row>
-    <row r="824" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A824" s="1" t="s">
         <v>593</v>
       </c>
@@ -22934,7 +22934,7 @@
         <v>2281</v>
       </c>
     </row>
-    <row r="825" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A825" s="1" t="s">
         <v>593</v>
       </c>
@@ -22950,7 +22950,7 @@
         <v>2282</v>
       </c>
     </row>
-    <row r="826" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A826" s="1" t="s">
         <v>593</v>
       </c>
@@ -22966,7 +22966,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="827" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A827" s="1" t="s">
         <v>593</v>
       </c>
@@ -22982,7 +22982,7 @@
         <v>2284</v>
       </c>
     </row>
-    <row r="828" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A828" s="1" t="s">
         <v>593</v>
       </c>
@@ -22998,7 +22998,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="829" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A829" s="1" t="s">
         <v>593</v>
       </c>
@@ -23014,7 +23014,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="830" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A830" s="1" t="s">
         <v>593</v>
       </c>
@@ -23030,7 +23030,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="831" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A831" s="1" t="s">
         <v>593</v>
       </c>
@@ -23046,7 +23046,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="832" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A832" s="1" t="s">
         <v>593</v>
       </c>
@@ -23062,7 +23062,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="833" spans="1:6" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A833" s="1" t="s">
         <v>593</v>
       </c>
@@ -23078,7 +23078,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="834" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A834" s="1" t="s">
         <v>593</v>
       </c>
@@ -23094,7 +23094,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="835" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A835" s="1" t="s">
         <v>593</v>
       </c>
@@ -23110,7 +23110,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="836" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A836" s="1" t="s">
         <v>593</v>
       </c>
@@ -23142,7 +23142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A838" s="1" t="s">
         <v>593</v>
       </c>
@@ -23158,7 +23158,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="839" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A839" s="1" t="s">
         <v>593</v>
       </c>
@@ -23174,7 +23174,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="840" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A840" s="1" t="s">
         <v>593</v>
       </c>
@@ -23190,7 +23190,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="841" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A841" s="1" t="s">
         <v>593</v>
       </c>
@@ -23222,7 +23222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="843" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A843" s="1" t="s">
         <v>593</v>
       </c>
@@ -23238,7 +23238,7 @@
         <v>2298</v>
       </c>
     </row>
-    <row r="844" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A844" s="1" t="s">
         <v>593</v>
       </c>
@@ -23254,7 +23254,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="845" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A845" s="1" t="s">
         <v>593</v>
       </c>
@@ -23270,7 +23270,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="846" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A846" s="1" t="s">
         <v>593</v>
       </c>
@@ -23286,7 +23286,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="847" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A847" s="1" t="s">
         <v>593</v>
       </c>
@@ -23302,7 +23302,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="848" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A848" s="1" t="s">
         <v>593</v>
       </c>
@@ -23318,7 +23318,7 @@
         <v>2303</v>
       </c>
     </row>
-    <row r="849" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A849" s="1" t="s">
         <v>593</v>
       </c>
@@ -23334,7 +23334,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="850" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A850" s="1"/>
       <c r="B850" s="1" t="s">
         <v>26</v>
@@ -23348,7 +23348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="851" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A851" s="1" t="s">
         <v>593</v>
       </c>
@@ -23366,7 +23366,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="852" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A852" s="1" t="s">
         <v>593</v>
       </c>
@@ -23382,7 +23382,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="853" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A853" s="1" t="s">
         <v>593</v>
       </c>
@@ -23398,7 +23398,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="854" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A854" s="1" t="s">
         <v>593</v>
       </c>
@@ -23414,7 +23414,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="855" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A855" s="1" t="s">
         <v>593</v>
       </c>
@@ -23430,7 +23430,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="856" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A856" s="1" t="s">
         <v>593</v>
       </c>
@@ -23446,7 +23446,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="857" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A857" s="1" t="s">
         <v>593</v>
       </c>
@@ -23464,7 +23464,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="858" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A858" s="1" t="s">
         <v>593</v>
       </c>
@@ -23480,7 +23480,7 @@
         <v>2312</v>
       </c>
     </row>
-    <row r="859" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A859" s="1" t="s">
         <v>593</v>
       </c>
@@ -23496,7 +23496,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="860" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A860" s="1" t="s">
         <v>593</v>
       </c>
@@ -23512,7 +23512,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="861" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A861" s="1" t="s">
         <v>593</v>
       </c>
@@ -23528,7 +23528,7 @@
         <v>2315</v>
       </c>
     </row>
-    <row r="862" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A862" s="1" t="s">
         <v>593</v>
       </c>
@@ -23545,13 +23545,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F862">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Folder"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F862"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="85" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
